--- a/tests/Templates/tLists5_GlobalVars.xlsx
+++ b/tests/Templates/tLists5_GlobalVars.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havli\source\repos\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E2F92-0152-44A3-A08E-E4C67FF780D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="615" windowWidth="17400" windowHeight="11460"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="19968" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,16 +112,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -123,13 +128,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -190,7 +193,6 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -312,25 +314,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,51 +338,43 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -395,25 +386,22 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -498,6 +486,14 @@
       <color rgb="FF9F7CFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,7 +514,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="logo.png"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -891,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -902,197 +904,167 @@
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="6"/>
-      <c r="B3" s="21" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="21" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="30" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="12" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="12">
-      <c r="A9" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="11.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="12">
-      <c r="A13" s="2"/>
+    <row r="12" spans="1:9" ht="12" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="12" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1100,29 +1072,27 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7" t="s">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="2"/>
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:9" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
